--- a/data-raw/NutrientData/nutrientDetails/USDA GFS IMPACT V21.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/USDA GFS IMPACT V21.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="1460" yWindow="660" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -82,9 +82,6 @@
     <t>Cereals Other</t>
   </si>
   <si>
-    <t>Cocoa Beans</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
   </si>
   <si>
     <t>clent</t>
-  </si>
-  <si>
-    <t>Other Crops</t>
   </si>
   <si>
     <t>corat</t>
@@ -1149,6 +1143,12 @@
   </si>
   <si>
     <t>assume 12% ethanol</t>
+  </si>
+  <si>
+    <t>Other Nuts and Seeds</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
   </si>
 </sst>
 </file>
@@ -2709,10 +2709,10 @@
   <dimension ref="A1:BL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AQ43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW65" sqref="AW65:BL65"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2780,112 +2780,112 @@
       <c r="H1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO1" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP1" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ1" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS1" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="AU1" s="40"/>
     </row>
@@ -2893,316 +2893,316 @@
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O2" s="103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R2" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V2" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD2" s="110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE2" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG2" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH2" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK2" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL2" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AM2" s="6"/>
       <c r="AN2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="AR2" s="6"/>
       <c r="AS2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AU2" s="17"/>
     </row>
     <row r="3" spans="1:64" s="18" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD3" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE3" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF3" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG3" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH3" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI3" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ3" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK3" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL3" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU3" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="48" t="s">
+      <c r="AW3" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX3" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AY3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ3" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA3" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB3" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC3" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD3" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="BE3" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF3" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG3" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH3" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI3" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ3" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK3" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL3" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD3" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE3" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI3" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ3" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK3" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="AL3" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV3" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW3" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AX3" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="AY3" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ3" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA3" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB3" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="BC3" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD3" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="BE3" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="BF3" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="BG3" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="BH3" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="BI3" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ3" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK3" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="BL3" s="49" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3234,20 +3234,20 @@
     </row>
     <row r="5" spans="1:64" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H5" s="16">
         <v>100</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="AU5" s="58"/>
       <c r="AV5" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW5" s="49"/>
       <c r="AX5" s="49"/>
@@ -3369,20 +3369,20 @@
     </row>
     <row r="6" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H6" s="16">
         <v>100</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="AU6" s="58"/>
       <c r="AV6" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW6" s="49"/>
       <c r="AX6" s="49"/>
@@ -3490,20 +3490,20 @@
     </row>
     <row r="7" spans="1:64" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E7" s="8"/>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H7" s="16">
         <v>100</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="AU7" s="58"/>
       <c r="AV7" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW7" s="49"/>
       <c r="AX7" s="49"/>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
@@ -3645,7 +3645,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" s="50"/>
       <c r="L8" s="43">
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW8" s="49"/>
       <c r="AX8" s="49"/>
@@ -3763,20 +3763,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>12101001</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H9" s="15">
         <v>100</v>
@@ -3877,7 +3877,7 @@
         <v>302</v>
       </c>
       <c r="AV9" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW9" s="49">
         <v>0.8</v>
@@ -3933,20 +3933,20 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>18101045</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H10" s="15">
         <v>100</v>
@@ -4050,7 +4050,7 @@
         <v>601</v>
       </c>
       <c r="AV10" s="49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AW10" s="49">
         <v>0.55000000000000004</v>
@@ -4106,13 +4106,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
@@ -4123,7 +4123,7 @@
         <v>84</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J11" s="50"/>
       <c r="L11" s="43">
@@ -4220,7 +4220,7 @@
         <v>3454</v>
       </c>
       <c r="AV11" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AW11" s="49">
         <v>0.85</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
@@ -4388,7 +4388,7 @@
         <v>805</v>
       </c>
       <c r="AV12" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AW12" s="49">
         <v>0.7</v>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="C13" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -4554,7 +4554,7 @@
         <v>522</v>
       </c>
       <c r="AV13" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW13" s="49">
         <v>0.65</v>
@@ -4607,16 +4607,16 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
@@ -4719,7 +4719,7 @@
         <v>230</v>
       </c>
       <c r="AV14" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW14" s="49"/>
       <c r="AX14" s="49"/>
@@ -4740,16 +4740,16 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
@@ -4760,7 +4760,7 @@
         <v>38.4</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J15" s="50"/>
       <c r="L15" s="43">
@@ -4854,7 +4854,7 @@
         <v>3142</v>
       </c>
       <c r="AV15" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW15" s="49"/>
       <c r="AX15" s="49"/>
@@ -4875,16 +4875,16 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="24">
@@ -4991,7 +4991,7 @@
         <v>302</v>
       </c>
       <c r="AV16" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW16" s="49">
         <v>0.8</v>
@@ -5044,16 +5044,16 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="61"/>
@@ -5146,7 +5146,7 @@
         <v>522</v>
       </c>
       <c r="AV17" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW17" s="49">
         <v>0.65</v>
@@ -5199,16 +5199,16 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="23"/>
@@ -5216,7 +5216,7 @@
         <v>87</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L18" s="48">
         <v>83.01</v>
@@ -5316,7 +5316,7 @@
         <v>2753</v>
       </c>
       <c r="AV18" s="49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AW18" s="49">
         <v>0.9</v>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="19" spans="1:64" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
@@ -5389,7 +5389,7 @@
         <v>88</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="6"/>
@@ -5494,7 +5494,7 @@
         <v>105</v>
       </c>
       <c r="AV19" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AW19" s="49">
         <v>0.85</v>
@@ -5547,16 +5547,16 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="23"/>
@@ -5646,7 +5646,7 @@
         <v>710</v>
       </c>
       <c r="AV20" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW20" s="49"/>
       <c r="AX20" s="49"/>
@@ -5667,16 +5667,16 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E21" s="8"/>
       <c r="H21" s="16">
@@ -5765,7 +5765,7 @@
         <v>2455</v>
       </c>
       <c r="AV21" s="49" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AW21" s="49">
         <v>0.95</v>
@@ -5818,16 +5818,16 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5918,7 +5918,7 @@
         <v>2305</v>
       </c>
       <c r="AV22" s="49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AW22" s="49">
         <v>0.9</v>
@@ -5971,16 +5971,16 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
@@ -6086,7 +6086,7 @@
         <v>502</v>
       </c>
       <c r="AV23" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AW23" s="49">
         <v>0.7</v>
@@ -6139,16 +6139,16 @@
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8">
@@ -6240,7 +6240,7 @@
         <v>14</v>
       </c>
       <c r="AV24" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW24" s="49"/>
       <c r="AX24" s="49"/>
@@ -6261,16 +6261,16 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
@@ -6371,7 +6371,7 @@
         <v>302</v>
       </c>
       <c r="AV25" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW25" s="49">
         <v>0.8</v>
@@ -6424,16 +6424,16 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8">
@@ -6537,7 +6537,7 @@
         <v>5019</v>
       </c>
       <c r="AV26" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW26" s="49">
         <v>1</v>
@@ -6590,16 +6590,16 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
@@ -6705,7 +6705,7 @@
         <v>5019</v>
       </c>
       <c r="AV27" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW27" s="49">
         <v>1</v>
@@ -6758,16 +6758,16 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
@@ -6876,7 +6876,7 @@
         <v>5019</v>
       </c>
       <c r="AV28" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW28" s="49">
         <v>1</v>
@@ -6929,16 +6929,16 @@
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
@@ -7044,7 +7044,7 @@
         <v>5019</v>
       </c>
       <c r="AV29" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW29" s="49">
         <v>1</v>
@@ -7097,16 +7097,16 @@
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
@@ -7212,7 +7212,7 @@
         <v>2202</v>
       </c>
       <c r="AV30" s="49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AW30" s="49">
         <v>0.85</v>
@@ -7265,16 +7265,16 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -7367,7 +7367,7 @@
         <v>522</v>
       </c>
       <c r="AV31" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW31" s="49">
         <v>0.65</v>
@@ -7420,16 +7420,16 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="65"/>
@@ -7438,7 +7438,7 @@
         <v>65</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J32" s="67"/>
       <c r="L32" s="60">
@@ -7535,7 +7535,7 @@
         <v>153</v>
       </c>
       <c r="AV32" s="49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW32" s="49">
         <v>0.8</v>
@@ -7588,23 +7588,23 @@
     </row>
     <row r="33" spans="1:64" ht="195" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
         <v>18103095</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H33" s="16">
         <v>100</v>
@@ -7696,7 +7696,7 @@
         <v>1254</v>
       </c>
       <c r="AV33" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW33" s="49">
         <v>0.6</v>
@@ -7749,16 +7749,16 @@
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
@@ -7769,7 +7769,7 @@
         <v>75</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="50"/>
       <c r="L34" s="43">
@@ -7866,7 +7866,7 @@
         <v>3308</v>
       </c>
       <c r="AV34" s="49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AW34" s="49">
         <v>0.8</v>
@@ -7919,16 +7919,16 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
@@ -8034,7 +8034,7 @@
         <v>432</v>
       </c>
       <c r="AV35" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AW35" s="49">
         <v>0.8</v>
@@ -8087,16 +8087,16 @@
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8">
@@ -8107,7 +8107,7 @@
         <v>54</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J36" s="50"/>
       <c r="L36" s="43">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="AV36" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW36" s="49"/>
       <c r="AX36" s="49"/>
@@ -8222,16 +8222,16 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
@@ -8332,7 +8332,7 @@
         <v>302</v>
       </c>
       <c r="AV37" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW37" s="49">
         <v>0.8</v>
@@ -8385,16 +8385,16 @@
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8">
@@ -8500,7 +8500,7 @@
         <v>522</v>
       </c>
       <c r="AV38" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW38" s="49">
         <v>0.65</v>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW39" s="49"/>
       <c r="AX39" s="49"/>
@@ -8688,29 +8688,29 @@
     </row>
     <row r="40" spans="1:64" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
         <v>24302043</v>
       </c>
       <c r="G40" s="92" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H40" s="16">
         <v>72</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J40" s="50"/>
       <c r="L40" s="43">
@@ -8807,7 +8807,7 @@
         <v>3708</v>
       </c>
       <c r="AV40" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW40" s="49">
         <v>0.8</v>
@@ -8860,16 +8860,16 @@
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="31"/>
@@ -8878,7 +8878,7 @@
         <v>86</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J41" s="59"/>
       <c r="L41" s="43">
@@ -8982,7 +8982,7 @@
         <v>3454</v>
       </c>
       <c r="AV41" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AW41" s="49">
         <v>0.85</v>
@@ -9035,16 +9035,16 @@
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
@@ -9150,7 +9150,7 @@
         <v>5019</v>
       </c>
       <c r="AV42" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW42" s="49">
         <v>1</v>
@@ -9203,20 +9203,20 @@
     </row>
     <row r="43" spans="1:64" ht="240" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="24">
         <v>11101001</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="31"/>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="AV43" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AW43" s="49"/>
       <c r="AX43" s="49"/>
@@ -9330,16 +9330,16 @@
     </row>
     <row r="44" spans="1:64" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -9443,7 +9443,7 @@
         <v>5019</v>
       </c>
       <c r="AV44" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AW44" s="49">
         <v>1</v>
@@ -9496,16 +9496,16 @@
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
@@ -9599,7 +9599,7 @@
         <v>302</v>
       </c>
       <c r="AV45" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW45" s="49">
         <v>0.8</v>
@@ -9652,16 +9652,16 @@
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
@@ -9672,7 +9672,7 @@
         <v>86</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J46" s="50"/>
       <c r="L46" s="43">
@@ -9769,7 +9769,7 @@
         <v>3708</v>
       </c>
       <c r="AV46" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW46" s="49">
         <v>0.8</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="32"/>
@@ -9937,7 +9937,7 @@
         <v>522</v>
       </c>
       <c r="AV47" s="80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW47" s="80">
         <v>0.65</v>
@@ -9990,16 +9990,16 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H48" s="16">
         <v>100</v>
@@ -10106,7 +10106,7 @@
         <v>601</v>
       </c>
       <c r="AV48" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AW48" s="6">
         <v>0.55000000000000004</v>
@@ -10159,16 +10159,16 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H49" s="70">
         <v>84.61767667588596</v>
@@ -10276,7 +10276,7 @@
         <v>3771</v>
       </c>
       <c r="AV49" s="68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AW49" s="68">
         <v>0.9</v>
@@ -10332,14 +10332,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="5"/>
@@ -10434,23 +10434,23 @@
     </row>
     <row r="51" spans="1:64" s="7" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="95"/>
       <c r="D51" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E51" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="90">
         <v>18102056</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="5"/>
@@ -10545,13 +10545,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="33"/>
@@ -10643,16 +10643,16 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="33"/>
@@ -10744,17 +10744,17 @@
     </row>
     <row r="54" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="33"/>
@@ -10850,16 +10850,16 @@
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="90"/>
@@ -10951,17 +10951,17 @@
     </row>
     <row r="56" spans="1:64" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E56" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F56" s="90"/>
       <c r="G56" s="90"/>
@@ -11024,17 +11024,17 @@
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="90"/>
@@ -11096,16 +11096,16 @@
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="94"/>
@@ -11200,17 +11200,17 @@
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="90"/>
@@ -11293,17 +11293,17 @@
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H60" s="16"/>
       <c r="O60" s="87"/>
@@ -11382,17 +11382,17 @@
     </row>
     <row r="61" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H61" s="16"/>
       <c r="O61" s="87"/>
@@ -11471,17 +11471,17 @@
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H62" s="16"/>
       <c r="O62" s="87"/>
@@ -11560,17 +11560,17 @@
     </row>
     <row r="63" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H63" s="16"/>
       <c r="O63" s="87"/>
@@ -11649,17 +11649,17 @@
     </row>
     <row r="64" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H64" s="16"/>
       <c r="O64" s="87"/>
@@ -11738,17 +11738,17 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H65" s="16"/>
       <c r="L65" s="85"/>
@@ -11896,7 +11896,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
